--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -99,11 +99,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PRML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:30
+15:50-16:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +374,9 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,7 +855,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,11 +954,11 @@
       <c r="A6" s="20">
         <v>43871</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,23 @@
   <si>
     <t>13:00-15:30
 15:50-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/1/15-
+2020/2/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间没有学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +196,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -331,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +408,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F18" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F19" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F19"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="5"/>
     <tableColumn id="2" name="时间段" dataDxfId="4"/>
@@ -852,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -935,47 +973,59 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>43870</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
-        <v>43871</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>20</v>
+      <c r="A6" s="17">
+        <v>43870</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="20">
+        <v>43871</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="22">
+        <v>43872</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -1053,12 +1103,20 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1073,18 +1131,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F18">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1116,6 +1162,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F4 A6:F19 C5:F5 A5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:30-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PRML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,14 @@
   </si>
   <si>
     <t>中间没有学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +897,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,11 +978,11 @@
     </row>
     <row r="5" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="5"/>
@@ -1021,20 +1025,30 @@
         <v>43872</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="22">
+        <v>43873</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
@@ -1162,7 +1176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 A6:F19 C5:F5 A5">
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,11 +121,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>13:30-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>13:30-16:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:30-14:00</t>
+    <t>13:00-14:00
+14:00-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLE&amp;MAP
+PRML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1040,7 @@
         <v>43872</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>21</v>
@@ -1040,8 +1055,8 @@
       <c r="A9" s="22">
         <v>43873</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
+      <c r="B9" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>17</v>
@@ -1053,10 +1068,18 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="22">
+        <v>43873</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,11 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00-14:00
-14:00-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MLE&amp;MAP
 PRML</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +136,33 @@
   <si>
     <t xml:space="preserve">完成
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:00
+14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30
+20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRML
+LM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +456,12 @@
     </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,65 +1097,79 @@
     </row>
     <row r="10" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="22">
+        <v>43875</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="22">
+        <v>43876</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,11 +158,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PRML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:00
+13:20-15:30
+16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +942,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1131,13 +1133,15 @@
       <c r="A12" s="22">
         <v>43876</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,22 @@
     <t>9:30-10:00
 13:20-15:30
 16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaddlePaddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:20-xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +958,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1162,9 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22">
+        <v>43877</v>
+      </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1154,18 +1172,34 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="22">
+        <v>43878</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="22">
+        <v>43879</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,7 +180,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14:20-xx</t>
+    <t>14:20-17:30
+18:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLG评测了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00
+13:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗略
+BLEU、ROUGE、CIDEr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30
+14:00-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELU论文
+NLG评测调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML
+NLG评测基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要掌握NLG评
+测的数学计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -378,17 +417,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -422,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,16 +461,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -955,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -988,257 +1014,497 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>43841</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>43843</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>43844</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>43870</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>43871</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>43872</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>43873</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>43874</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <v>43875</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>43876</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>43877</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="20">
         <v>43878</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>43879</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="20">
+        <v>43882</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="20">
+        <v>43883</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="20">
+        <v>43884</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="7">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1247,7 +1513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1259,7 +1525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1268,6 +1534,222 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F19">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:F20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:F21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:F22">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:F23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:F24">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:F25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:F26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:F27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:F28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:F29">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:F30">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:F31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:F32">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:F33">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:F35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:F36">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1279,8 +1761,116 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F19">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="A37:F37">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:F38">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:F39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:F40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:F41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:F42">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:F43">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:F44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:F45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:F46">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,26 @@
   <si>
     <t>需要掌握NLG评
 测的数学计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:40-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML白板推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F19" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F24" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F24"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="5"/>
     <tableColumn id="2" name="时间段" dataDxfId="4"/>
@@ -981,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -1286,44 +1306,64 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="20">
+        <v>43885</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="20">
+        <v>43886</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="20">
+        <v>43887</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="20">
+        <v>43888</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="20">
+        <v>43889</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
@@ -1500,6 +1540,46 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1545,7 +1625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F19">
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F24">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -1557,7 +1637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:F20">
+  <conditionalFormatting sqref="A25:F25">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -1569,7 +1649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:F21">
+  <conditionalFormatting sqref="A26:F26">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -1581,7 +1661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:F22">
+  <conditionalFormatting sqref="A27:F27">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -1593,7 +1673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:F23">
+  <conditionalFormatting sqref="A28:F28">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -1605,7 +1685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:F24">
+  <conditionalFormatting sqref="A29:F29">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -1617,7 +1697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:F25">
+  <conditionalFormatting sqref="A30:F30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -1629,7 +1709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:F26">
+  <conditionalFormatting sqref="A31:F31">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1641,7 +1721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F27">
+  <conditionalFormatting sqref="A32:F32">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1653,7 +1733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:F28">
+  <conditionalFormatting sqref="A33:F33">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1665,7 +1745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:F29">
+  <conditionalFormatting sqref="A34:F34">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1677,7 +1757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:F30">
+  <conditionalFormatting sqref="A35:F35">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1689,7 +1769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:F31">
+  <conditionalFormatting sqref="A36:F36">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1701,7 +1781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:F32">
+  <conditionalFormatting sqref="A37:F37">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1713,7 +1793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33">
+  <conditionalFormatting sqref="A38:F38">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1725,7 +1805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:F34">
+  <conditionalFormatting sqref="A39:F39">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1737,7 +1817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35">
+  <conditionalFormatting sqref="A40:F40">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1749,7 +1829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:F36">
+  <conditionalFormatting sqref="A41:F41">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1761,7 +1841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:F37">
+  <conditionalFormatting sqref="A42:F42">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1773,7 +1853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38">
+  <conditionalFormatting sqref="A43:F43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1785,7 +1865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39">
+  <conditionalFormatting sqref="A44:F44">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1797,7 +1877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40">
+  <conditionalFormatting sqref="A45:F45">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1809,7 +1889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:F41">
+  <conditionalFormatting sqref="A46:F46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1821,7 +1901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42">
+  <conditionalFormatting sqref="A47:F47">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1833,7 +1913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:F43">
+  <conditionalFormatting sqref="A48:F48">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1845,7 +1925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:F44">
+  <conditionalFormatting sqref="A49:F49">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1857,7 +1937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:F45">
+  <conditionalFormatting sqref="A50:F50">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1869,7 +1949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:F46">
+  <conditionalFormatting sqref="A51:F51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,15 +231,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:40-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ML白板推导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1-p4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1008,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1320,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -1326,12 +1330,14 @@
         <v>43886</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,19 @@
   </si>
   <si>
     <t>p1-p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-10:30
+15:00-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML白板推导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1345,8 +1358,12 @@
       <c r="A22" s="20">
         <v>43887</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
@@ -1355,8 +1372,12 @@
       <c r="A23" s="20">
         <v>43888</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" s="19"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,34 @@
   </si>
   <si>
     <t>ML白板推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-19:30
+19:30-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代词共指问题
+decoder评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoding了解
+eval接口
+nltk库作为对照
+其余方法接口封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30
+11:30-12:00
+13:30-17:30
+18:30-21:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval接口基本完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,8 +769,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F24" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F43" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F43"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="5"/>
     <tableColumn id="2" name="时间段" dataDxfId="4"/>
@@ -1018,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1386,163 +1414,211 @@
       <c r="A24" s="20">
         <v>43889</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" s="19"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="20">
+        <v>43890</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="20">
+        <v>43891</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="A27" s="20">
+        <v>43892</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="20">
+        <v>43893</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="20">
+        <v>43894</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="20">
+        <v>43895</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="20">
+        <v>43896</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="A32" s="20">
+        <v>43897</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="20">
+        <v>43898</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="A34" s="20">
+        <v>43899</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+      <c r="A35" s="20">
+        <v>43900</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="A36" s="20">
+        <v>43901</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="20">
+        <v>43902</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="20">
+        <v>43903</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="A39" s="20">
+        <v>43904</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="A40" s="20">
+        <v>43905</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
+      <c r="A41" s="20">
+        <v>43906</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="20">
+        <v>43907</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="20">
+        <v>43908</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
@@ -1607,6 +1683,158 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1652,7 +1880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F24">
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F43">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -1664,7 +1892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:F25">
+  <conditionalFormatting sqref="A44:F44">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -1676,7 +1904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:F26">
+  <conditionalFormatting sqref="A45:F45">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -1688,7 +1916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:F27">
+  <conditionalFormatting sqref="A46:F46">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -1700,7 +1928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:F28">
+  <conditionalFormatting sqref="A47:F47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -1712,7 +1940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:F29">
+  <conditionalFormatting sqref="A48:F48">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -1724,7 +1952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:F30">
+  <conditionalFormatting sqref="A49:F49">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -1736,7 +1964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:F31">
+  <conditionalFormatting sqref="A50:F50">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1748,7 +1976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:F32">
+  <conditionalFormatting sqref="A51:F51">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1760,7 +1988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33">
+  <conditionalFormatting sqref="A52:F52">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1772,7 +2000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:F34">
+  <conditionalFormatting sqref="A53:F53">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1784,7 +2012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35">
+  <conditionalFormatting sqref="A54:F54">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1796,7 +2024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:F36">
+  <conditionalFormatting sqref="A55:F55">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1808,7 +2036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:F37">
+  <conditionalFormatting sqref="A56:F56">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1820,7 +2048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:F38">
+  <conditionalFormatting sqref="A57:F57">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1832,7 +2060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:F39">
+  <conditionalFormatting sqref="A58:F58">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1844,7 +2072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:F40">
+  <conditionalFormatting sqref="A59:F59">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1856,7 +2084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:F41">
+  <conditionalFormatting sqref="A60:F60">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1868,7 +2096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42">
+  <conditionalFormatting sqref="A61:F61">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1880,7 +2108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:F43">
+  <conditionalFormatting sqref="A62:F62">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1892,7 +2120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:F44">
+  <conditionalFormatting sqref="A63:F63">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1904,7 +2132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:F45">
+  <conditionalFormatting sqref="A64:F64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1916,7 +2144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:F46">
+  <conditionalFormatting sqref="A65:F65">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1928,7 +2156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:F47">
+  <conditionalFormatting sqref="A66:F66">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1940,7 +2168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:F48">
+  <conditionalFormatting sqref="A67:F67">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1952,7 +2180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:F49">
+  <conditionalFormatting sqref="A68:F68">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1964,7 +2192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:F50">
+  <conditionalFormatting sqref="A69:F69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1976,7 +2204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51">
+  <conditionalFormatting sqref="A70:F70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,26 @@
   </si>
   <si>
     <t>eval接口基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与伟哥讨论序列标注评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:40
+16:00-17:40
+19:00-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM(N-gram,RNN)
+N-gram论文
+实践</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1069,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1444,8 +1464,12 @@
       <c r="A26" s="20">
         <v>43891</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="19"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
@@ -1454,8 +1478,12 @@
       <c r="A27" s="20">
         <v>43892</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="D27" s="19"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,22 @@
     <t>LM(N-gram,RNN)
 N-gram论文
 实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muit-bleu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1502,8 +1518,12 @@
       <c r="A29" s="20">
         <v>43894</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D29" s="19"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -1512,8 +1532,12 @@
       <c r="A30" s="20">
         <v>43895</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,11 +316,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西瓜书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:20-11:00</t>
+    <t>西瓜书
+muit-bleu整理
+LM_N-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-11:00
+12:40-13:45
+20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜书
+N-gram句子生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30
+14:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNLM了解
+论文+代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:00
+14:00-16:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗略完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1113,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,8 +1584,12 @@
       <c r="A32" s="20">
         <v>43897</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -1566,9 +1598,15 @@
       <c r="A33" s="20">
         <v>43898</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,26 @@
   </si>
   <si>
     <t>粗略完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMLo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-10:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMLo example</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1624,9 +1644,15 @@
       <c r="A35" s="20">
         <v>43900</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
@@ -1634,8 +1660,12 @@
       <c r="A36" s="20">
         <v>43901</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D36" s="19"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:10-10:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:30-15:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,7 +364,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMLo example</t>
+    <t>EMLo example
+EMLo论文
+EMLo论文
+代码实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-10:25
+10:30-12:00
+13:00-13:30
+15:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfomer图解
+代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:15-11:30
+13:00-14:00
+14:50-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:10-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformer代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1158,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1645,13 +1670,13 @@
         <v>43900</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
@@ -1661,10 +1686,10 @@
         <v>43901</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="4"/>
@@ -1674,8 +1699,12 @@
       <c r="A37" s="20">
         <v>43902</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D37" s="19"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
@@ -1684,8 +1713,12 @@
       <c r="A38" s="20">
         <v>43903</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D38" s="19"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,11 +389,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:10-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transformer代码</t>
+    <t>transformer代码
+大致了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要torchtext处理进行训练
+卷积的使用&amp;pos_embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:10-11:00
+13:40-15:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1165,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,12 +1721,14 @@
         <v>43903</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="19"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,19 +389,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transformer代码
-大致了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要torchtext处理进行训练
 卷积的使用&amp;pos_embedding</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>transformer代码
+大致了解
+paddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10:10-11:00
-13:40-15:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+13:40-15:30
+20:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:10-11:00
+14:40-15:30
+20:30-21:00</t>
+  </si>
+  <si>
+    <t>10:10-11:00
+15:40-15:30
+20:30-21:00</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1177,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1724,10 +1736,10 @@
         <v>82</v>
       </c>
       <c r="C38" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,14 +406,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:10-11:00
-14:40-15:30
-20:30-21:00</t>
-  </si>
-  <si>
-    <t>10:10-11:00
-15:40-15:30
-20:30-21:00</t>
+    <t>paddle比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1176,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1748,8 +1750,12 @@
       <c r="A39" s="20">
         <v>43904</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D39" s="19"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
@@ -1758,8 +1764,12 @@
       <c r="A40" s="20">
         <v>43905</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D40" s="19"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,7 +414,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-**</t>
+    <t>paddle比赛
+修改内部函数
+LSTM_ATT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-12:00
+14:10-16:00
+18:00-20:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1187,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1765,10 +1773,10 @@
         <v>43905</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="4"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,37 @@
     <t>9:30-12:00
 14:10-16:00
 18:00-20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.指定合理计划
+2.指定学习内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-12:00
+16:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER论文-GRN
+GRN例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRN例子</t>
+  </si>
+  <si>
+    <t>9:30-11:00
+13:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,6 +741,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -907,8 +944,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F43" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F48" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F48"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="5"/>
     <tableColumn id="2" name="时间段" dataDxfId="4"/>
@@ -1184,16 +1221,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="1" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1783,250 +1821,312 @@
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
-        <v>43906</v>
+      <c r="A41" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
-        <v>43907</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+        <v>43913</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="D42" s="19"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
-        <v>43908</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+        <v>43914</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="D43" s="19"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
+      <c r="A44" s="20">
+        <v>43915</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
+      <c r="A45" s="20">
+        <v>43916</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>43917</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20">
+        <v>43918</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>43919</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="17"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="17"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="17"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="17"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="17"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="17"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="17"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="17"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="17"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="17"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="17"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="17"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="17"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="17"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="17"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="17"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="17"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="17"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="17"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="17"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="17"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="17"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2072,7 +2172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F43">
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -2084,7 +2184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:F44">
+  <conditionalFormatting sqref="A49:F49">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2096,7 +2196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:F45">
+  <conditionalFormatting sqref="A50:F50">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2108,7 +2208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:F46">
+  <conditionalFormatting sqref="A51:F51">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2120,7 +2220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:F47">
+  <conditionalFormatting sqref="A52:F52">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2132,7 +2232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:F48">
+  <conditionalFormatting sqref="A53:F53">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2144,7 +2244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:F49">
+  <conditionalFormatting sqref="A54:F54">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2156,7 +2256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:F50">
+  <conditionalFormatting sqref="A55:F55">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2168,7 +2268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51">
+  <conditionalFormatting sqref="A56:F56">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2180,7 +2280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52">
+  <conditionalFormatting sqref="A57:F57">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2192,7 +2292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53">
+  <conditionalFormatting sqref="A58:F58">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2204,7 +2304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54">
+  <conditionalFormatting sqref="A59:F59">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2216,7 +2316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:F55">
+  <conditionalFormatting sqref="A60:F60">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2228,7 +2328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:F56">
+  <conditionalFormatting sqref="A61:F61">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2240,7 +2340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57">
+  <conditionalFormatting sqref="A62:F62">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2252,7 +2352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:F58">
+  <conditionalFormatting sqref="A63:F63">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2264,7 +2364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:F59">
+  <conditionalFormatting sqref="A64:F64">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2276,7 +2376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:F60">
+  <conditionalFormatting sqref="A65:F65">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2288,7 +2388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:F61">
+  <conditionalFormatting sqref="A66:F66">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2300,7 +2400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:F62">
+  <conditionalFormatting sqref="A67:F67">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2312,7 +2412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:F63">
+  <conditionalFormatting sqref="A68:F68">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2324,7 +2424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64">
+  <conditionalFormatting sqref="A69:F69">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2336,7 +2436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65">
+  <conditionalFormatting sqref="A70:F70">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2348,7 +2448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66">
+  <conditionalFormatting sqref="A71:F71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2360,7 +2460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67">
+  <conditionalFormatting sqref="A72:F72">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2372,7 +2472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:F68">
+  <conditionalFormatting sqref="A73:F73">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2384,7 +2484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:F69">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2396,7 +2496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70">
+  <conditionalFormatting sqref="A75:F75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,52 @@
   <si>
     <t>9:30-11:00
 13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval_gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-12:00
+12:40-15:10
+16:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval_gen优化结构
+优化word2vec速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-12:00
+13:00-14:00
+20:30-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval_gen add dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRN与Transfomer(CNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. torchtext预处理
+2. 加载与训练的词向量、embedding的原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1223,13 +1272,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="90.75" customWidth="1"/>
   </cols>
@@ -1866,9 +1917,15 @@
       <c r="A44" s="20">
         <v>43915</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
@@ -1876,8 +1933,12 @@
       <c r="A45" s="20">
         <v>43916</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="D45" s="19"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1886,8 +1947,12 @@
       <c r="A46" s="20">
         <v>43917</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="D46" s="19"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1896,11 +1961,17 @@
       <c r="A47" s="20">
         <v>43918</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="D47" s="19"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="26" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20">

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,16 +490,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:40-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GRN与Transfomer(CNN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. torchtext预处理
 2. 加载与训练的词向量、embedding的原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. torchtext预处理   （paddle比赛）
+2. 加载与训练的词向量、embedding的原理   （torch.nn.embedding）
+3. GRN&amp;Transformer梳理
+4. eval_gen方法学习与修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. eval_seq方法修改与理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,6 +811,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -993,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F48" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F56" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F56"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="5"/>
     <tableColumn id="2" name="时间段" dataDxfId="4"/>
@@ -1270,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1962,15 +1986,15 @@
         <v>43918</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="4"/>
       <c r="F47" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1985,67 +2009,87 @@
     </row>
     <row r="49" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
-      <c r="B49" s="17"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
+      <c r="A50" s="20">
+        <v>43920</v>
+      </c>
       <c r="B50" s="17"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="29" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
+      <c r="A51" s="20">
+        <v>43921</v>
+      </c>
       <c r="B51" s="17"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
+      <c r="A52" s="20">
+        <v>43922</v>
+      </c>
       <c r="B52" s="17"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="20">
+        <v>43923</v>
+      </c>
       <c r="B53" s="17"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="20">
+        <v>43924</v>
+      </c>
       <c r="B54" s="17"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="20">
+        <v>43925</v>
+      </c>
       <c r="B55" s="17"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
+      <c r="A56" s="20">
+        <v>43926</v>
+      </c>
       <c r="B56" s="17"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
@@ -2194,15 +2238,71 @@
     <row r="75" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
       <c r="B75" s="17"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="20"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2211,7 +2311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2223,7 +2323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2232,30 +2332,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:F49">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F56 B49:D56">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:F57">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:F58">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2267,7 +2391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:F50">
+  <conditionalFormatting sqref="A59:F59">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2279,7 +2403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:F51">
+  <conditionalFormatting sqref="A60:F60">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2291,7 +2415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:F52">
+  <conditionalFormatting sqref="A61:F61">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2303,7 +2427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:F53">
+  <conditionalFormatting sqref="A62:F62">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2315,7 +2439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:F54">
+  <conditionalFormatting sqref="A63:F63">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2327,7 +2451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:F55">
+  <conditionalFormatting sqref="A64:F64">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2339,7 +2463,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:F56">
+  <conditionalFormatting sqref="A65:F65">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2351,7 +2475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57">
+  <conditionalFormatting sqref="A66:F66">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2363,7 +2487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:F58">
+  <conditionalFormatting sqref="A67:F67">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2375,7 +2499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:F59">
+  <conditionalFormatting sqref="A68:F68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2387,7 +2511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:F60">
+  <conditionalFormatting sqref="A69:F69">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2399,7 +2523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:F61">
+  <conditionalFormatting sqref="A70:F70">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2411,7 +2535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:F62">
+  <conditionalFormatting sqref="A71:F71">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2423,7 +2547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:F63">
+  <conditionalFormatting sqref="A72:F72">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2435,7 +2559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64">
+  <conditionalFormatting sqref="A73:F73">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2447,7 +2571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2459,7 +2583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66">
+  <conditionalFormatting sqref="A75:F75">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2471,7 +2595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67">
+  <conditionalFormatting sqref="A76:F76">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2483,7 +2607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:F68">
+  <conditionalFormatting sqref="A77:F77">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2495,7 +2619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:F69">
+  <conditionalFormatting sqref="A78:F78">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2507,7 +2631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70">
+  <conditionalFormatting sqref="A79:F79">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2519,7 +2643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:F71">
+  <conditionalFormatting sqref="A80:F80">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2531,7 +2655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:F72">
+  <conditionalFormatting sqref="A81:F81">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2543,7 +2667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:F73">
+  <conditionalFormatting sqref="A82:F82">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2555,7 +2679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:F74">
+  <conditionalFormatting sqref="E49:E56">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2567,7 +2691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:F75">
+  <conditionalFormatting sqref="F49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,14 +507,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. eval_seq方法修改与理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval_seq方法输出report
+eval_seq输出结果的理解&amp;report2json&amp;结构整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:15-11:00
+13:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. torchtext预处理   （paddle比赛）
 2. 加载与训练的词向量、embedding的原理   （torch.nn.embedding）
 3. GRN&amp;Transformer梳理
-4. eval_gen方法学习与修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. eval_seq方法修改与理解</t>
+4. eval_gen方法学习与修正
+5. 往期代码上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. eval_gen方法准确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> eval_gen方法准确性（存在问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往期代码上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,14 +1327,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="90.75" customWidth="1"/>
@@ -2010,43 +2041,57 @@
     <row r="49" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="6"/>
       <c r="E49" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>43920</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="24"/>
       <c r="F50" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>43921</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="29" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>43922</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="24"/>
       <c r="F52" s="29"/>
@@ -2056,7 +2101,7 @@
         <v>43923</v>
       </c>
       <c r="B53" s="17"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="4"/>
       <c r="E53" s="24"/>
       <c r="F53" s="29"/>
@@ -2066,7 +2111,7 @@
         <v>43924</v>
       </c>
       <c r="B54" s="17"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="4"/>
       <c r="E54" s="24"/>
       <c r="F54" s="29"/>
@@ -2076,7 +2121,7 @@
         <v>43925</v>
       </c>
       <c r="B55" s="17"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="4"/>
       <c r="E55" s="24"/>
       <c r="F55" s="29"/>
@@ -2086,7 +2131,7 @@
         <v>43926</v>
       </c>
       <c r="B56" s="17"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="4"/>
       <c r="E56" s="24"/>
       <c r="F56" s="29"/>
@@ -2343,7 +2388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56">
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56 C49:C56">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -2355,7 +2400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F56 B49:D56">
+  <conditionalFormatting sqref="F50:F56 B49:B56 D49:D56">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,11 +541,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14:00-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>往期代码上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos cws调试梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:11-11:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos cws继续调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2087,10 +2111,10 @@
         <v>43922</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="24"/>
@@ -2110,8 +2134,12 @@
       <c r="A54" s="20">
         <v>43924</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="24"/>
       <c r="F54" s="29"/>
@@ -2120,8 +2148,12 @@
       <c r="A55" s="20">
         <v>43925</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="24"/>
       <c r="F55" s="29"/>
@@ -2130,8 +2162,12 @@
       <c r="A56" s="20">
         <v>43926</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="24"/>
       <c r="F56" s="29"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,12 +572,33 @@
     <t>整理结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>第七周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. torchtext预处理   （paddle比赛）
+2. 加载与训练的词向量、embedding的原理   （torch.nn.embedding）
+3. GRN&amp;Transformer梳理
+4. eval_gen方法学习与修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30&amp;14:00-17:00
+20:40-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paddle&amp;torchtext
+pos&amp;cws训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +680,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,8 +726,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -793,6 +841,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -800,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,6 +934,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F56" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F57" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F57"/>
   <tableColumns count="6">
     <tableColumn id="1" name="日期" dataDxfId="5"/>
     <tableColumn id="2" name="时间段" dataDxfId="4"/>
@@ -1351,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2173,23 +2245,35 @@
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="4"/>
+      <c r="E57" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="4"/>
+      <c r="A58" s="20">
+        <v>43927</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
+      <c r="A59" s="20">
+        <v>43928</v>
+      </c>
       <c r="B59" s="17"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2197,7 +2281,9 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
+      <c r="A60" s="20">
+        <v>43929</v>
+      </c>
       <c r="B60" s="17"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2205,7 +2291,9 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
+      <c r="A61" s="20">
+        <v>43930</v>
+      </c>
       <c r="B61" s="17"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2213,7 +2301,9 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
+      <c r="A62" s="20">
+        <v>43931</v>
+      </c>
       <c r="B62" s="17"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2221,7 +2311,9 @@
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="20">
+        <v>43932</v>
+      </c>
       <c r="B63" s="17"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2229,7 +2321,9 @@
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
+      <c r="A64" s="20">
+        <v>43933</v>
+      </c>
       <c r="B64" s="17"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2383,7 +2477,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2392,7 +2486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2404,7 +2498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="44">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2413,7 +2507,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2425,7 +2519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56 C49:C56">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2437,6 +2531,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F56 B49:B56 D49:D56">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A64">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:F59">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:F60">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:F61">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2448,7 +2602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:F57">
+  <conditionalFormatting sqref="B62:F62">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2460,7 +2614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:F58">
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2472,7 +2626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:F59">
+  <conditionalFormatting sqref="B64:F64">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2484,7 +2638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:F60">
+  <conditionalFormatting sqref="A65:F65">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2496,7 +2650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:F61">
+  <conditionalFormatting sqref="A66:F66">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2508,7 +2662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:F62">
+  <conditionalFormatting sqref="A67:F67">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2520,7 +2674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:F63">
+  <conditionalFormatting sqref="A68:F68">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2532,7 +2686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:F64">
+  <conditionalFormatting sqref="A69:F69">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2544,7 +2698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65">
+  <conditionalFormatting sqref="A70:F70">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2556,7 +2710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66">
+  <conditionalFormatting sqref="A71:F71">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2568,7 +2722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67">
+  <conditionalFormatting sqref="A72:F72">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2580,7 +2734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:F68">
+  <conditionalFormatting sqref="A73:F73">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2592,7 +2746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:F69">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2604,7 +2758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70">
+  <conditionalFormatting sqref="A75:F75">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2616,7 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:F71">
+  <conditionalFormatting sqref="A76:F76">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2628,7 +2782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:F72">
+  <conditionalFormatting sqref="A77:F77">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2640,7 +2794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:F73">
+  <conditionalFormatting sqref="A78:F78">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2652,7 +2806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:F74">
+  <conditionalFormatting sqref="A79:F79">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2664,7 +2818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:F75">
+  <conditionalFormatting sqref="A80:F80">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2676,7 +2830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76">
+  <conditionalFormatting sqref="A81:F81">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2688,7 +2842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77">
+  <conditionalFormatting sqref="A82:F82">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2700,7 +2854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78">
+  <conditionalFormatting sqref="E49:E56">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2712,7 +2866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79">
+  <conditionalFormatting sqref="F49">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2724,7 +2878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:F80">
+  <conditionalFormatting sqref="E57">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2736,7 +2890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:F81">
+  <conditionalFormatting sqref="F57">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2748,7 +2902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82">
+  <conditionalFormatting sqref="C58">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2760,7 +2914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E56">
+  <conditionalFormatting sqref="F58 B58 D58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2772,7 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="E58">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,13 +584,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-11:30&amp;14:00-17:00
-20:40-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>paddle&amp;torchtext
 pos&amp;cws训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30&amp;14:00-17:00
+20:40-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paddle关系抽取比赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1424,7 +1432,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2261,10 +2269,10 @@
         <v>43927</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="32"/>
@@ -2274,8 +2282,12 @@
       <c r="A59" s="20">
         <v>43928</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="4"/>
@@ -2284,8 +2296,8 @@
       <c r="A60" s="20">
         <v>43929</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="4"/>
@@ -2294,8 +2306,8 @@
       <c r="A61" s="20">
         <v>43930</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="4"/>
@@ -2304,8 +2316,8 @@
       <c r="A62" s="20">
         <v>43931</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="6"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="4"/>
@@ -2314,8 +2326,8 @@
       <c r="A63" s="20">
         <v>43932</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="4"/>
@@ -2324,8 +2336,8 @@
       <c r="A64" s="20">
         <v>43933</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="6"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="4"/>
@@ -2566,7 +2578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:F59">
+  <conditionalFormatting sqref="D59:F59">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2578,7 +2590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:F60">
+  <conditionalFormatting sqref="D60:F60">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2590,7 +2602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:F61">
+  <conditionalFormatting sqref="D61:F61">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2602,7 +2614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:F62">
+  <conditionalFormatting sqref="D62:F62">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2614,7 +2626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:F63">
+  <conditionalFormatting sqref="D63:F63">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2626,7 +2638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:F64">
+  <conditionalFormatting sqref="D64:F64">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2902,7 +2914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C58:C64">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2914,7 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 B58 D58">
+  <conditionalFormatting sqref="F58 D58 B58:B64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -594,11 +594,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>paddle关系抽取比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2283,10 +2283,10 @@
         <v>43928</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2926,7 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 D58 B58:B64">
+  <conditionalFormatting sqref="D58 F58 B58:B64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第七周学习计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,6 +596,43 @@
   <si>
     <t>9:30-11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. paddle_RE比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 重新理解题目&amp;调试未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30
+13:50-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. paddle_RE基线系统调试
+2. 调试代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. paddle_RE基线系统调试</t>
   </si>
 </sst>
 </file>
@@ -867,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,6 +987,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,16 +1482,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="4" max="5" width="34.375" customWidth="1"/>
     <col min="6" max="6" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2246,7 +2296,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="24"/>
@@ -2258,10 +2308,10 @@
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -2269,10 +2319,10 @@
         <v>43927</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="32"/>
@@ -2283,10 +2333,10 @@
         <v>43928</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2306,8 +2356,12 @@
       <c r="A61" s="20">
         <v>43930</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
+      <c r="B61" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="4"/>
@@ -2347,72 +2401,102 @@
       <c r="B65" s="17"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="4"/>
+      <c r="E65" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="4"/>
+      <c r="A66" s="20">
+        <v>43936</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
     </row>
     <row r="67" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="4"/>
+      <c r="A67" s="20">
+        <v>43937</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="37"/>
     </row>
     <row r="68" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="4"/>
+      <c r="A68" s="20">
+        <v>43938</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="37"/>
     </row>
     <row r="69" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="4"/>
+      <c r="A69" s="20">
+        <v>43939</v>
+      </c>
+      <c r="B69" s="38"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="37"/>
     </row>
     <row r="70" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="4"/>
+      <c r="A70" s="20">
+        <v>43940</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="37"/>
     </row>
     <row r="71" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="4"/>
+      <c r="A71" s="20">
+        <v>43941</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="4"/>
+      <c r="A72" s="20">
+        <v>43942</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
     </row>
     <row r="73" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="4"/>
+      <c r="A73" s="20">
+        <v>43943</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="37"/>
     </row>
     <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
@@ -2489,27 +2573,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F2">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F1">
     <cfRule type="iconSet" priority="44">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2518,8 +2581,29 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F2">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2531,7 +2615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56 C49:C56">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2543,6 +2627,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F56 B49:B56 D49:D56">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A64">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:F59">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2554,7 +2674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
+  <conditionalFormatting sqref="D60:F60">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2566,7 +2686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A64">
+  <conditionalFormatting sqref="D61:F61">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2578,7 +2698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:F59">
+  <conditionalFormatting sqref="D62:F62">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2590,7 +2710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:F60">
+  <conditionalFormatting sqref="D63:F63">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2602,7 +2722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:F61">
+  <conditionalFormatting sqref="D64:F64">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2614,7 +2734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
+  <conditionalFormatting sqref="A65:D65">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2626,7 +2746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:F63">
+  <conditionalFormatting sqref="B66:F66">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2638,7 +2758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:F64">
+  <conditionalFormatting sqref="B67:F67">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2650,7 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:F65">
+  <conditionalFormatting sqref="B68:F68">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2662,7 +2782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:F66">
+  <conditionalFormatting sqref="B69:F69">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2674,7 +2794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:F67">
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2686,7 +2806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:F68">
+  <conditionalFormatting sqref="B71:F71">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2698,7 +2818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:F69">
+  <conditionalFormatting sqref="B72:F72">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2710,7 +2830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:F70">
+  <conditionalFormatting sqref="B73:F73">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2722,7 +2842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:F71">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2734,7 +2854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:F72">
+  <conditionalFormatting sqref="A75:F75">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2746,7 +2866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:F73">
+  <conditionalFormatting sqref="A76:F76">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2758,7 +2878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:F74">
+  <conditionalFormatting sqref="A77:F77">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2770,7 +2890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:F75">
+  <conditionalFormatting sqref="A78:F78">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2782,7 +2902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76">
+  <conditionalFormatting sqref="A79:F79">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2794,7 +2914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77">
+  <conditionalFormatting sqref="A80:F80">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2806,7 +2926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78">
+  <conditionalFormatting sqref="A81:F81">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2818,7 +2938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79">
+  <conditionalFormatting sqref="A82:F82">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2830,7 +2950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:F80">
+  <conditionalFormatting sqref="E49:E56">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2842,7 +2962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:F81">
+  <conditionalFormatting sqref="F49">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2854,7 +2974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82">
+  <conditionalFormatting sqref="E57">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2866,7 +2986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E56">
+  <conditionalFormatting sqref="F57">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2878,7 +2998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="C58:C64">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2890,7 +3010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+  <conditionalFormatting sqref="F58 D58 B58:B64">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2902,7 +3022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="E58">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2914,7 +3034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C64">
+  <conditionalFormatting sqref="A66:A73">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2926,7 +3046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58 F58 B58:B64">
+  <conditionalFormatting sqref="E65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2938,7 +3058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="F65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,11 +628,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. paddle_RE基线系统调试</t>
+  </si>
+  <si>
+    <t>9:30-11:30&amp;13:00-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. paddle_RE极限系统模型和代码结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-12:00&amp;16:15-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 复习transformer 
+2. 学习bert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. paddle_EE调试完成 
+2. EE问题总结
+3. 结构梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30
+12:30-16:00
+19:45-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9:30-**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. paddle_RE基线系统调试</t>
+    <t>1. 尝试提交结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -900,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,6 +1046,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2439,10 +2486,10 @@
         <v>43938</v>
       </c>
       <c r="B68" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="36" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="36"/>
       <c r="E68" s="36"/>
@@ -2452,8 +2499,12 @@
       <c r="A69" s="20">
         <v>43939</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="36"/>
+      <c r="B69" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>134</v>
+      </c>
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
       <c r="F69" s="37"/>
@@ -2469,111 +2520,141 @@
       <c r="F70" s="37"/>
     </row>
     <row r="71" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20">
-        <v>43941</v>
-      </c>
+      <c r="A71" s="20"/>
       <c r="B71" s="38"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
+      <c r="E71" s="35" t="s">
+        <v>136</v>
+      </c>
       <c r="F71" s="37"/>
     </row>
     <row r="72" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20">
-        <v>43942</v>
-      </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
+        <v>43941</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="37"/>
     </row>
     <row r="73" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20">
+        <v>43942</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="37"/>
+    </row>
+    <row r="74" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
         <v>43943</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="37"/>
-    </row>
-    <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="B74" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
+    <row r="75" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
+        <v>43944</v>
+      </c>
       <c r="B75" s="17"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
+    <row r="76" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
+        <v>43945</v>
+      </c>
       <c r="B76" s="17"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
+    <row r="77" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="20">
+        <v>43946</v>
+      </c>
       <c r="B77" s="17"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
+    <row r="78" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
+        <v>43947</v>
+      </c>
       <c r="B78" s="17"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
+    <row r="79" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="20">
+        <v>43948</v>
+      </c>
       <c r="B79" s="17"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
+    <row r="80" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="20">
+        <v>43949</v>
+      </c>
       <c r="B80" s="17"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
+    <row r="81" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="20">
+        <v>43950</v>
+      </c>
       <c r="B81" s="17"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
+    <row r="82" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
+        <v>43951</v>
+      </c>
       <c r="B82" s="17"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2582,7 +2663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2594,7 +2675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="iconSet" priority="47">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2603,7 +2684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2615,7 +2696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56 C49:C56">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2627,6 +2708,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F56 B49:B56 D49:D56">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2638,7 +2731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
+  <conditionalFormatting sqref="A58:A64">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2650,7 +2743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A64">
+  <conditionalFormatting sqref="D59:F59">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2662,7 +2755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:F59">
+  <conditionalFormatting sqref="D60:F60">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2674,7 +2767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:F60">
+  <conditionalFormatting sqref="D61:F61">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2686,7 +2779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:F61">
+  <conditionalFormatting sqref="D62:F62">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2698,7 +2791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
+  <conditionalFormatting sqref="D63:F63">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2710,7 +2803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:F63">
+  <conditionalFormatting sqref="D64:F64">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2722,7 +2815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:F64">
+  <conditionalFormatting sqref="A65:D65">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2734,7 +2827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D65">
+  <conditionalFormatting sqref="B66:F66">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2746,7 +2839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:F66">
+  <conditionalFormatting sqref="B67:F67">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2758,7 +2851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:F67">
+  <conditionalFormatting sqref="B68:F68">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2770,7 +2863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:F68">
+  <conditionalFormatting sqref="B69:F69">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2782,7 +2875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F69">
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2794,7 +2887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+  <conditionalFormatting sqref="B71:D71 F71">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2806,7 +2899,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:F71">
+  <conditionalFormatting sqref="B72:F72 B73:B82">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2818,7 +2911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:F72">
+  <conditionalFormatting sqref="C73:F73 C74:E82">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2830,7 +2923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:F73">
+  <conditionalFormatting sqref="F74">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2842,7 +2935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:F74">
+  <conditionalFormatting sqref="F75">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2854,7 +2947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:F75">
+  <conditionalFormatting sqref="F76">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2866,7 +2959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:F76">
+  <conditionalFormatting sqref="F77">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2878,7 +2971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:F77">
+  <conditionalFormatting sqref="F78">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2890,7 +2983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:F78">
+  <conditionalFormatting sqref="F79">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2902,7 +2995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:F79">
+  <conditionalFormatting sqref="F80">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2914,7 +3007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:F80">
+  <conditionalFormatting sqref="F81">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2926,7 +3019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:F81">
+  <conditionalFormatting sqref="F82">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2938,7 +3031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:F82">
+  <conditionalFormatting sqref="E49:E56">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2950,7 +3043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E56">
+  <conditionalFormatting sqref="F49">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2962,7 +3055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="E57">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2974,7 +3067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+  <conditionalFormatting sqref="F57">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2986,7 +3079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="C58:C64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2998,7 +3091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C64">
+  <conditionalFormatting sqref="D58 F58 B58:B64">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3010,7 +3103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 D58 B58:B64">
+  <conditionalFormatting sqref="E58">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3022,7 +3115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="A66:A82">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3034,7 +3127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A73">
+  <conditionalFormatting sqref="E65">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3046,7 +3139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+  <conditionalFormatting sqref="F65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3058,7 +3151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
+  <conditionalFormatting sqref="E71">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,11 +668,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 尝试提交结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30
+13:30-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 本地调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:15-8:40
+9:20-11:40
+13:10-17:00
+20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:20-12:00
+14:20-**19:30
+20:30-23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 预测结果
+2. 错误排查基本完毕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2561,11 +2584,11 @@
       <c r="A74" s="20">
         <v>43943</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
@@ -2575,8 +2598,12 @@
       <c r="A75" s="20">
         <v>43944</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="41"/>
+      <c r="B75" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="4"/>
@@ -2585,8 +2612,12 @@
       <c r="A76" s="20">
         <v>43945</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="41"/>
+      <c r="B76" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
       <c r="F76" s="4"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="149">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,14 +688,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7:20-12:00
-14:20-**19:30
-20:30-23:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 预测结果
 2. 错误排查基本完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 提交训练结果
+2. paddle基础知识
+3. baseline梳理（大致流程初步了解）
+4. 数据如何在模型训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:00
+13:40-15:20
+15:20-17:35
+21:00-22:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:20-12:00
+14:20-19:30
+20:30-23:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1553,7 +1567,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2613,10 +2627,10 @@
         <v>43945</v>
       </c>
       <c r="B76" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>146</v>
       </c>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
@@ -2626,8 +2640,12 @@
       <c r="A77" s="20">
         <v>43946</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="41"/>
+      <c r="B77" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="F77" s="4"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="172">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,6 +710,116 @@
     <t>7:20-12:00
 14:20-19:30
 20:30-23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00
+13:20-16:00
+19:40-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pytorch实现
+2. Transformer批处理问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Transformer Encoder
+2. 训练
+3. eval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-11:40
+12:30-16:00
+19:00-00:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 结果预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50-12:20
+12:30-17:30
+18:10-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 结构整理
+2. 增加log信息
+3. 加载词向量
+4. 调参
+5. eval结果输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. eval结果输出错误
+2. 了解bert
+3. 模型报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:30
+20:30-21:00
+21:00-0:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30
+12:00-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十九周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 结果可视化分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1088,6 +1198,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1564,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2654,56 +2770,833 @@
       <c r="A78" s="20">
         <v>43947</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="41"/>
+      <c r="B78" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>150</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
-        <v>43948</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="41"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20">
-        <v>43949</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="41"/>
+        <v>43948</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>151</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
-        <v>43950</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="41"/>
+        <v>43949</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>153</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
-        <v>43951</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="41"/>
+        <v>43950</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>156</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
       <c r="F82" s="4"/>
     </row>
+    <row r="83" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
+        <v>43951</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="20">
+        <v>43952</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+    </row>
+    <row r="85" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="20">
+        <v>43953</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+    </row>
+    <row r="86" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="20">
+        <v>43954</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+    </row>
+    <row r="87" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="20">
+        <v>43955</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+    </row>
+    <row r="89" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20">
+        <v>43956</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+    </row>
+    <row r="90" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="20">
+        <v>43957</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+    </row>
+    <row r="91" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="20">
+        <v>43958</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+    </row>
+    <row r="92" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="20">
+        <v>43959</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+    </row>
+    <row r="93" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="20">
+        <v>43960</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+    </row>
+    <row r="94" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
+        <v>43961</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+    </row>
+    <row r="95" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="4"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>43962</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+    </row>
+    <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>43963</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+    </row>
+    <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="20">
+        <v>43964</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+    </row>
+    <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="20">
+        <v>43965</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+    </row>
+    <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="20">
+        <v>43966</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+    </row>
+    <row r="101" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="20">
+        <v>43967</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+    </row>
+    <row r="102" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="20">
+        <v>43968</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+    </row>
+    <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="4"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="20">
+        <v>43969</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+    </row>
+    <row r="105" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>43970</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+    </row>
+    <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="20">
+        <v>43971</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+    </row>
+    <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="20">
+        <v>43972</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+    </row>
+    <row r="108" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="20">
+        <v>43973</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+    </row>
+    <row r="109" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="20">
+        <v>43974</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+    </row>
+    <row r="110" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="20">
+        <v>43975</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+    </row>
+    <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="4"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="20">
+        <v>43976</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+    </row>
+    <row r="113" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="20">
+        <v>43977</v>
+      </c>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+    </row>
+    <row r="114" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="20">
+        <v>43978</v>
+      </c>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+    </row>
+    <row r="115" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="20">
+        <v>43979</v>
+      </c>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+    </row>
+    <row r="116" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="20">
+        <v>43980</v>
+      </c>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+    </row>
+    <row r="117" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="20">
+        <v>43981</v>
+      </c>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+    </row>
+    <row r="118" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="20">
+        <v>43982</v>
+      </c>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+    </row>
+    <row r="119" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="20">
+        <v>43983</v>
+      </c>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+    </row>
+    <row r="121" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="20">
+        <v>43984</v>
+      </c>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+    </row>
+    <row r="122" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="20">
+        <v>43985</v>
+      </c>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+    </row>
+    <row r="123" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="20">
+        <v>43986</v>
+      </c>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+    </row>
+    <row r="124" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="20">
+        <v>43987</v>
+      </c>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+    </row>
+    <row r="125" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="20">
+        <v>43988</v>
+      </c>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+    </row>
+    <row r="126" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="20">
+        <v>43989</v>
+      </c>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+    </row>
+    <row r="127" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="20">
+        <v>43990</v>
+      </c>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+    </row>
+    <row r="129" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="20">
+        <v>43991</v>
+      </c>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+    </row>
+    <row r="130" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="20">
+        <v>43992</v>
+      </c>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+    </row>
+    <row r="131" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="20">
+        <v>43993</v>
+      </c>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+    </row>
+    <row r="132" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="20">
+        <v>43994</v>
+      </c>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+    </row>
+    <row r="133" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="20">
+        <v>43995</v>
+      </c>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+    </row>
+    <row r="134" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="20">
+        <v>43996</v>
+      </c>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+    </row>
+    <row r="135" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="20">
+        <v>43997</v>
+      </c>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+    </row>
+    <row r="137" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="20">
+        <v>43998</v>
+      </c>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+    </row>
+    <row r="138" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="20">
+        <v>43999</v>
+      </c>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+    </row>
+    <row r="139" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="20">
+        <v>44000</v>
+      </c>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+    </row>
+    <row r="140" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="20">
+        <v>44001</v>
+      </c>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+    </row>
+    <row r="141" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="20">
+        <v>44002</v>
+      </c>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+    </row>
+    <row r="142" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="20">
+        <v>44003</v>
+      </c>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+    </row>
+    <row r="143" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="20">
+        <v>44004</v>
+      </c>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+    </row>
+    <row r="145" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="20">
+        <v>44005</v>
+      </c>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+    </row>
+    <row r="146" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="20">
+        <v>44006</v>
+      </c>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+    </row>
+    <row r="147" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="20">
+        <v>44007</v>
+      </c>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+    </row>
+    <row r="148" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="20">
+        <v>44008</v>
+      </c>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+    </row>
+    <row r="149" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="20">
+        <v>44009</v>
+      </c>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+    </row>
+    <row r="150" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="20">
+        <v>44010</v>
+      </c>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+    </row>
+    <row r="151" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="20">
+        <v>44011</v>
+      </c>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+    </row>
+    <row r="153" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="20">
+        <v>44012</v>
+      </c>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+    </row>
+    <row r="154" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="20">
+        <v>44013</v>
+      </c>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+    </row>
+    <row r="155" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="20">
+        <v>44014</v>
+      </c>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+    </row>
+    <row r="156" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="20">
+        <v>44015</v>
+      </c>
+      <c r="B156" s="43"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43"/>
+    </row>
+    <row r="157" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="20">
+        <v>44016</v>
+      </c>
+      <c r="B157" s="43"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="43"/>
+    </row>
+    <row r="158" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="20">
+        <v>44017</v>
+      </c>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+    </row>
+    <row r="159" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="41"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="20">
+        <v>44018</v>
+      </c>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+    </row>
+    <row r="161" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="20">
+        <v>44019</v>
+      </c>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+    </row>
+    <row r="162" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="20">
+        <v>44020</v>
+      </c>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
+    </row>
+    <row r="163" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="20">
+        <v>44021</v>
+      </c>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
+    </row>
+    <row r="164" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="20">
+        <v>44022</v>
+      </c>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="43"/>
+    </row>
+    <row r="165" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="20">
+        <v>44023</v>
+      </c>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="43"/>
+    </row>
+    <row r="166" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="20">
+        <v>44024</v>
+      </c>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="43"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2712,7 +3605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F2">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2724,7 +3617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="69">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2733,6 +3626,150 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56 C49:C56">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F56 B49:B56 D49:D56">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A64">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:F59">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:F60">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:F61">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:F63">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64:F64">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D65">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:F66">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -2744,19 +3781,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 C5:F5 A5 A6:F48 A49:A56 C49:C56">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F56 B49:B56 D49:D56">
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:F68">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:F69">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:D71 F71">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:F72 B73:B84">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73:F73 C74:E78 C80:E83 C79:D79">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2768,7 +3913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
+  <conditionalFormatting sqref="F78:F79">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2780,7 +3925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A64">
+  <conditionalFormatting sqref="F80">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2792,7 +3937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:F59">
+  <conditionalFormatting sqref="F81">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2804,7 +3949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:F60">
+  <conditionalFormatting sqref="F82">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2816,7 +3961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:F61">
+  <conditionalFormatting sqref="F83">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2828,7 +3973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
+  <conditionalFormatting sqref="E49:E56">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2840,7 +3985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:F63">
+  <conditionalFormatting sqref="F49">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2852,7 +3997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:F64">
+  <conditionalFormatting sqref="E57">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2864,7 +4009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D65">
+  <conditionalFormatting sqref="F57">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2876,7 +4021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:F66">
+  <conditionalFormatting sqref="C58:C64">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2888,7 +4033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:F67">
+  <conditionalFormatting sqref="D58 F58 B58:B64">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2900,7 +4045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:F68">
+  <conditionalFormatting sqref="E58">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2912,7 +4057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F69">
+  <conditionalFormatting sqref="A66:A86">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2924,7 +4069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+  <conditionalFormatting sqref="E65">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2936,7 +4081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:D71 F71">
+  <conditionalFormatting sqref="F65">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2948,7 +4093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:F72 B73:B82">
+  <conditionalFormatting sqref="E71">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2960,7 +4105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73:F73 C74:E82">
+  <conditionalFormatting sqref="E79">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2972,7 +4117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
+  <conditionalFormatting sqref="A88:A94">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2984,7 +4129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+  <conditionalFormatting sqref="A96:A102">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2996,7 +4141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+  <conditionalFormatting sqref="E87">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3008,7 +4153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
+  <conditionalFormatting sqref="E95">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3020,7 +4165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
+  <conditionalFormatting sqref="A104:A110">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3032,7 +4177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="E103">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3044,7 +4189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
+  <conditionalFormatting sqref="E111">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3056,7 +4201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81">
+  <conditionalFormatting sqref="A112:A118">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3068,7 +4213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
+  <conditionalFormatting sqref="A120:A126">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3080,7 +4225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E56">
+  <conditionalFormatting sqref="A128:A134">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3092,7 +4237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="E119">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3104,7 +4249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+  <conditionalFormatting sqref="E127">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3116,7 +4261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="A136:A142">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3128,7 +4273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C64">
+  <conditionalFormatting sqref="E135">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3140,7 +4285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58 F58 B58:B64">
+  <conditionalFormatting sqref="E143">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3152,7 +4297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="A144:A150">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3164,7 +4309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A82">
+  <conditionalFormatting sqref="E151">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3176,7 +4321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+  <conditionalFormatting sqref="A152:A158">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3188,7 +4333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
+  <conditionalFormatting sqref="E159">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3200,7 +4345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
+  <conditionalFormatting sqref="A160:A166">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="178">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,52 +774,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第十一周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十九周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十周学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 结果可视化分析
+2. bert预训练模型
+3. 数据分布不均问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10:00-11:30
-12:00-13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十一周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十二周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十三周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十四周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十五周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十六周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十七周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十八周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十九周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十周学习计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 结果可视化分析</t>
+12:00-13:00
+14:30-15:50
+17:00-18:30
+19:15-0:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-8:30
+13:40-15:50
+20:00-0:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修改bert预训练模型
+2. bert效果不好（删除map）
+3. 画图函数（loss，f1）
+3. 最好的结果放入analysis
+4. 优化框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-15:00
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. bert相关实验
+2. 训练数据的相关统计
+（文档+提交结果）
+3. RoSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paddle baseline梳理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1682,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2846,15 +2885,15 @@
       <c r="E83" s="43"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>43952</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="43" t="s">
         <v>171</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
@@ -2863,8 +2902,12 @@
       <c r="A85" s="20">
         <v>43953</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="43"/>
+      <c r="B85" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
     </row>
@@ -2872,8 +2915,12 @@
       <c r="A86" s="20">
         <v>43954</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="43"/>
+      <c r="B86" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
     </row>
@@ -2882,15 +2929,19 @@
       <c r="C87" s="43"/>
       <c r="D87" s="43"/>
       <c r="E87" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
         <v>43955</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="43"/>
+      <c r="B88" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>177</v>
+      </c>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
     </row>
@@ -2898,7 +2949,7 @@
       <c r="A89" s="20">
         <v>43956</v>
       </c>
-      <c r="B89" s="4"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
@@ -2907,7 +2958,7 @@
       <c r="A90" s="20">
         <v>43957</v>
       </c>
-      <c r="B90" s="4"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
@@ -2916,7 +2967,7 @@
       <c r="A91" s="20">
         <v>43958</v>
       </c>
-      <c r="B91" s="4"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
@@ -2925,7 +2976,7 @@
       <c r="A92" s="20">
         <v>43959</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
@@ -2934,7 +2985,7 @@
       <c r="A93" s="20">
         <v>43960</v>
       </c>
-      <c r="B93" s="4"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="43"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
@@ -2943,24 +2994,24 @@
       <c r="A94" s="20">
         <v>43961</v>
       </c>
-      <c r="B94" s="4"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
     </row>
     <row r="95" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="43"/>
       <c r="E95" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
         <v>43962</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
@@ -2969,7 +3020,7 @@
       <c r="A97" s="20">
         <v>43963</v>
       </c>
-      <c r="B97" s="4"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
@@ -2978,7 +3029,7 @@
       <c r="A98" s="20">
         <v>43964</v>
       </c>
-      <c r="B98" s="4"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
@@ -2987,7 +3038,7 @@
       <c r="A99" s="20">
         <v>43965</v>
       </c>
-      <c r="B99" s="4"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
@@ -2996,7 +3047,7 @@
       <c r="A100" s="20">
         <v>43966</v>
       </c>
-      <c r="B100" s="4"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
@@ -3005,7 +3056,7 @@
       <c r="A101" s="20">
         <v>43967</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
@@ -3014,24 +3065,24 @@
       <c r="A102" s="20">
         <v>43968</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
     </row>
     <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="4"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
       <c r="E103" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
         <v>43969</v>
       </c>
-      <c r="B104" s="4"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
@@ -3040,7 +3091,7 @@
       <c r="A105" s="20">
         <v>43970</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
@@ -3049,7 +3100,7 @@
       <c r="A106" s="20">
         <v>43971</v>
       </c>
-      <c r="B106" s="4"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
@@ -3058,7 +3109,7 @@
       <c r="A107" s="20">
         <v>43972</v>
       </c>
-      <c r="B107" s="4"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
@@ -3067,7 +3118,7 @@
       <c r="A108" s="20">
         <v>43973</v>
       </c>
-      <c r="B108" s="4"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
@@ -3076,7 +3127,7 @@
       <c r="A109" s="20">
         <v>43974</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
@@ -3085,24 +3136,24 @@
       <c r="A110" s="20">
         <v>43975</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="43"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
     </row>
     <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="43"/>
       <c r="D111" s="43"/>
       <c r="E111" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20">
         <v>43976</v>
       </c>
-      <c r="B112" s="6"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="41"/>
       <c r="D112" s="41"/>
       <c r="E112" s="41"/>
@@ -3167,7 +3218,7 @@
       <c r="C119" s="43"/>
       <c r="D119" s="43"/>
       <c r="E119" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -3239,7 +3290,7 @@
       <c r="C127" s="43"/>
       <c r="D127" s="43"/>
       <c r="E127" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,7 +3362,7 @@
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
       <c r="E135" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -3383,7 +3434,7 @@
       <c r="C143" s="43"/>
       <c r="D143" s="43"/>
       <c r="E143" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -3455,7 +3506,7 @@
       <c r="C151" s="43"/>
       <c r="D151" s="43"/>
       <c r="E151" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -3523,11 +3574,11 @@
     </row>
     <row r="159" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="41"/>
-      <c r="B159" s="41"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="41"/>
       <c r="D159" s="41"/>
       <c r="E159" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -4033,7 +4084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58 F58 B58:B64">
+  <conditionalFormatting sqref="F58 D58 B58:B64">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,11 +854,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:00-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>paddle baseline梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 梳理paddle项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:15-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 提交结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2937,10 +2949,10 @@
         <v>43955</v>
       </c>
       <c r="B88" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="43" t="s">
         <v>176</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>177</v>
       </c>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
@@ -2958,8 +2970,12 @@
       <c r="A90" s="20">
         <v>43957</v>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
+      <c r="B90" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>178</v>
+      </c>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
     </row>
@@ -2994,8 +3010,12 @@
       <c r="A94" s="20">
         <v>43961</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
+      <c r="B94" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>180</v>
+      </c>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
     </row>
@@ -4084,7 +4104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 D58 B58:B64">
+  <conditionalFormatting sqref="D58 F58 B58:B64">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,11 +866,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:15-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 提交结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:15-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 数据分析
+2. RoSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-13:40
+16:40-17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 数据分析
+2. RoSeq及实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:06-12:00
+13:30-17:00
+21:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. add lstm+att(考虑CNN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3011,10 +3044,10 @@
         <v>43961</v>
       </c>
       <c r="B94" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="43" t="s">
         <v>179</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>180</v>
       </c>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
@@ -3031,8 +3064,12 @@
       <c r="A96" s="20">
         <v>43962</v>
       </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
+      <c r="B96" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
     </row>
@@ -3040,8 +3077,12 @@
       <c r="A97" s="20">
         <v>43963</v>
       </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
+      <c r="B97" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
     </row>
@@ -3058,8 +3099,12 @@
       <c r="A99" s="20">
         <v>43965</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
+      <c r="B99" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>184</v>
+      </c>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
     </row>
@@ -3067,8 +3112,12 @@
       <c r="A100" s="20">
         <v>43966</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
+      <c r="B100" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>187</v>
+      </c>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
     </row>
@@ -4104,7 +4153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58 F58 B58:B64">
+  <conditionalFormatting sqref="F58 D58 B58:B64">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,11 +899,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:20-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. add lstm+att(考虑CNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 讨论修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:20
+20:00**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. oversampling
+2. dict loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1766,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3113,10 +3139,10 @@
         <v>43966</v>
       </c>
       <c r="B100" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="43" t="s">
         <v>186</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>187</v>
       </c>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
@@ -3134,8 +3160,12 @@
       <c r="A102" s="20">
         <v>43968</v>
       </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
+      <c r="B102" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>189</v>
+      </c>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
     </row>
@@ -3151,8 +3181,12 @@
       <c r="A104" s="20">
         <v>43969</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
+      <c r="B104" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>190</v>
+      </c>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
     </row>
@@ -3160,8 +3194,12 @@
       <c r="A105" s="20">
         <v>43970</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
+      <c r="B105" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>193</v>
+      </c>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
     </row>

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E2A0D-D5E4-4D54-AA63-342CA0224BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,11 +933,39 @@
 2. dict loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>13:00-15:00
+17:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKS Transformer+crf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果 f1=0.21159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换bert为vector
+CCKS 增添Bi_lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-13:40
+**-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1=0.22601  bert可能存在问题
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1513,15 +1542,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F57" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A1:F57" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="日期" dataDxfId="5"/>
-    <tableColumn id="2" name="时间段" dataDxfId="4"/>
-    <tableColumn id="3" name="工作学习" dataDxfId="3"/>
-    <tableColumn id="4" name="今日完成状况" dataDxfId="2"/>
-    <tableColumn id="5" name="明日计划" dataDxfId="1"/>
-    <tableColumn id="6" name="本周计划" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="时间段" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="工作学习" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="今日完成状况" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="明日计划" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="本周计划" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,11 +1818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3386,9 +3415,15 @@
       <c r="A126" s="20">
         <v>43989</v>
       </c>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
+      <c r="B126" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" s="43" t="s">
+        <v>196</v>
+      </c>
       <c r="E126" s="43"/>
     </row>
     <row r="127" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,9 +3439,15 @@
       <c r="A128" s="20">
         <v>43990</v>
       </c>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
+      <c r="B128" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>199</v>
+      </c>
       <c r="E128" s="43"/>
     </row>
     <row r="129" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E2A0D-D5E4-4D54-AA63-342CA0224BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DF9F5-9BA3-48B2-AE91-C90034D5C3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="208">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,6 +959,48 @@
   <si>
     <t>f1=0.22601  bert可能存在问题
 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 统计数据长度分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:50-11:40
+14:00-15:30
+16:00-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 讨论问题 &amp; K-折交叉验证
+2. 部位名字补全
+3. 增加Bi-LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. f1=24
+2. f1=28
+3. f1=56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 训练
+2. 整理报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00
+22:00-23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 每部分进行检查确认
+2. 增加attention
+3. size进行优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,7 +1269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,6 +1385,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1821,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3463,8 +3508,12 @@
       <c r="A130" s="20">
         <v>43992</v>
       </c>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
+      <c r="B130" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>201</v>
+      </c>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
     </row>
@@ -3472,19 +3521,31 @@
       <c r="A131" s="20">
         <v>43993</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
+      <c r="B131" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>204</v>
+      </c>
       <c r="E131" s="43"/>
     </row>
     <row r="132" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
         <v>43994</v>
       </c>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
+      <c r="B132" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>205</v>
+      </c>
       <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
+      <c r="E132" s="26" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20">

--- a/doc/寒假学习计划.xlsx
+++ b/doc/寒假学习计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DF9F5-9BA3-48B2-AE91-C90034D5C3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189EA2D-DCDB-49F9-9E81-A590788AEDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="210">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,9 +998,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">
+10:50-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理验证完善baseline
+test_format_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 每部分进行检查确认
 2. 增加attention
-3. size进行优化</t>
+3. size进行优化
+4. 评测方法修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1867,7 +1878,7 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3544,15 +3555,19 @@
       </c>
       <c r="D132" s="43"/>
       <c r="E132" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20">
         <v>43995</v>
       </c>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
+      <c r="B133" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>208</v>
+      </c>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
     </row>
